--- a/raw_files/soil_respiration.xlsx
+++ b/raw_files/soil_respiration.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20403"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raquel.correa\Documents\banana_microbiome\raw_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Raquel\Documents\banana_microbiome\raw_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81AAD9DC-6373-46D1-A142-443E815F0131}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6940" xr2:uid="{FD341CF6-027E-43AF-A64C-D1822CDDEC5D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6945"/>
   </bookViews>
   <sheets>
     <sheet name="basal" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="18">
   <si>
     <t>time</t>
   </si>
@@ -77,11 +76,14 @@
   <si>
     <t>mg_co_basal</t>
   </si>
+  <si>
+    <t>t5</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -124,7 +126,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{4D21AFDF-431F-412E-B173-93D0488789BD}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -435,20 +437,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7303995-6BBF-4F5C-9F58-E49506BC2B82}">
-  <dimension ref="A1:E106"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E127"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A107" sqref="A107:E211"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="E119" sqref="E119"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.81640625" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" customWidth="1"/>
+    <col min="5" max="5" width="20.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -465,7 +469,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -482,7 +486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -499,7 +503,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -516,7 +520,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -533,7 +537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -550,7 +554,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -567,7 +571,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -584,7 +588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -601,7 +605,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -618,7 +622,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -635,7 +639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -652,7 +656,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -669,7 +673,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>2</v>
       </c>
@@ -686,7 +690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -703,7 +707,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -720,7 +724,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -737,7 +741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -754,7 +758,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>2</v>
       </c>
@@ -771,7 +775,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>2</v>
       </c>
@@ -788,7 +792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>2</v>
       </c>
@@ -805,7 +809,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>2</v>
       </c>
@@ -822,7 +826,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>5</v>
       </c>
@@ -839,7 +843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>5</v>
       </c>
@@ -856,7 +860,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -873,7 +877,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>5</v>
       </c>
@@ -890,7 +894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>5</v>
       </c>
@@ -907,7 +911,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>5</v>
       </c>
@@ -924,7 +928,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>5</v>
       </c>
@@ -941,7 +945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>5</v>
       </c>
@@ -958,7 +962,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>5</v>
       </c>
@@ -975,7 +979,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>5</v>
       </c>
@@ -992,7 +996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>5</v>
       </c>
@@ -1009,7 +1013,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>5</v>
       </c>
@@ -1026,7 +1030,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>5</v>
       </c>
@@ -1043,7 +1047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>5</v>
       </c>
@@ -1060,7 +1064,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>5</v>
       </c>
@@ -1077,7 +1081,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>5</v>
       </c>
@@ -1094,7 +1098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>5</v>
       </c>
@@ -1111,7 +1115,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>5</v>
       </c>
@@ -1128,7 +1132,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>5</v>
       </c>
@@ -1145,7 +1149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>5</v>
       </c>
@@ -1162,7 +1166,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>5</v>
       </c>
@@ -1179,7 +1183,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>6</v>
       </c>
@@ -1196,7 +1200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>6</v>
       </c>
@@ -1213,7 +1217,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>6</v>
       </c>
@@ -1230,7 +1234,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>6</v>
       </c>
@@ -1247,7 +1251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>6</v>
       </c>
@@ -1264,7 +1268,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>6</v>
       </c>
@@ -1281,7 +1285,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>6</v>
       </c>
@@ -1298,7 +1302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>6</v>
       </c>
@@ -1315,7 +1319,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>6</v>
       </c>
@@ -1332,7 +1336,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>6</v>
       </c>
@@ -1349,7 +1353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>6</v>
       </c>
@@ -1366,7 +1370,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>6</v>
       </c>
@@ -1383,7 +1387,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>6</v>
       </c>
@@ -1400,7 +1404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>6</v>
       </c>
@@ -1417,7 +1421,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>6</v>
       </c>
@@ -1434,7 +1438,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>6</v>
       </c>
@@ -1451,7 +1455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>6</v>
       </c>
@@ -1468,7 +1472,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>6</v>
       </c>
@@ -1485,7 +1489,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>6</v>
       </c>
@@ -1502,7 +1506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>6</v>
       </c>
@@ -1519,7 +1523,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>6</v>
       </c>
@@ -1536,7 +1540,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>7</v>
       </c>
@@ -1553,7 +1557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>7</v>
       </c>
@@ -1570,7 +1574,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>7</v>
       </c>
@@ -1587,7 +1591,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>7</v>
       </c>
@@ -1604,7 +1608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>7</v>
       </c>
@@ -1621,7 +1625,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>7</v>
       </c>
@@ -1638,7 +1642,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>7</v>
       </c>
@@ -1655,7 +1659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>7</v>
       </c>
@@ -1672,7 +1676,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>7</v>
       </c>
@@ -1689,7 +1693,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>7</v>
       </c>
@@ -1706,7 +1710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>7</v>
       </c>
@@ -1723,7 +1727,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>7</v>
       </c>
@@ -1740,7 +1744,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>7</v>
       </c>
@@ -1757,7 +1761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>7</v>
       </c>
@@ -1774,7 +1778,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>7</v>
       </c>
@@ -1791,7 +1795,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>7</v>
       </c>
@@ -1808,7 +1812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>7</v>
       </c>
@@ -1825,7 +1829,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>7</v>
       </c>
@@ -1842,7 +1846,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>7</v>
       </c>
@@ -1859,7 +1863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>7</v>
       </c>
@@ -1876,7 +1880,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>7</v>
       </c>
@@ -1893,7 +1897,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>8</v>
       </c>
@@ -1910,7 +1914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>8</v>
       </c>
@@ -1927,7 +1931,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>8</v>
       </c>
@@ -1944,7 +1948,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>8</v>
       </c>
@@ -1961,7 +1965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>8</v>
       </c>
@@ -1978,7 +1982,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>8</v>
       </c>
@@ -1995,7 +1999,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>8</v>
       </c>
@@ -2012,7 +2016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>8</v>
       </c>
@@ -2029,7 +2033,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>8</v>
       </c>
@@ -2046,7 +2050,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>8</v>
       </c>
@@ -2063,7 +2067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>8</v>
       </c>
@@ -2080,7 +2084,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>8</v>
       </c>
@@ -2097,7 +2101,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>8</v>
       </c>
@@ -2114,7 +2118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>8</v>
       </c>
@@ -2131,7 +2135,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>8</v>
       </c>
@@ -2148,7 +2152,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>8</v>
       </c>
@@ -2165,7 +2169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>8</v>
       </c>
@@ -2182,7 +2186,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>8</v>
       </c>
@@ -2199,7 +2203,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>8</v>
       </c>
@@ -2216,7 +2220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>8</v>
       </c>
@@ -2233,7 +2237,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>8</v>
       </c>
@@ -2247,6 +2251,363 @@
         <v>123.02036199095022</v>
       </c>
       <c r="E106">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>17</v>
+      </c>
+      <c r="B107" t="s">
+        <v>3</v>
+      </c>
+      <c r="C107">
+        <v>12.672811059907833</v>
+      </c>
+      <c r="D107">
+        <v>64.516129032258064</v>
+      </c>
+      <c r="E107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>17</v>
+      </c>
+      <c r="B108" t="s">
+        <v>3</v>
+      </c>
+      <c r="C108">
+        <v>9.6525096525096519</v>
+      </c>
+      <c r="D108">
+        <v>139.35810810810813</v>
+      </c>
+      <c r="E108">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>17</v>
+      </c>
+      <c r="B109" t="s">
+        <v>3</v>
+      </c>
+      <c r="C109">
+        <v>10.596546310832025</v>
+      </c>
+      <c r="D109">
+        <v>53.571428571428569</v>
+      </c>
+      <c r="E109">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>17</v>
+      </c>
+      <c r="B110" t="s">
+        <v>9</v>
+      </c>
+      <c r="C110">
+        <v>12.537993920972644</v>
+      </c>
+      <c r="D110">
+        <v>163.56382978723406</v>
+      </c>
+      <c r="E110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>17</v>
+      </c>
+      <c r="B111" t="s">
+        <v>9</v>
+      </c>
+      <c r="C111">
+        <v>20.871985157699442</v>
+      </c>
+      <c r="D111">
+        <v>117.69480519480518</v>
+      </c>
+      <c r="E111">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>17</v>
+      </c>
+      <c r="B112" t="s">
+        <v>9</v>
+      </c>
+      <c r="C112">
+        <v>15.476190476190476</v>
+      </c>
+      <c r="D112">
+        <v>204.16666666666666</v>
+      </c>
+      <c r="E112">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>17</v>
+      </c>
+      <c r="B113" t="s">
+        <v>10</v>
+      </c>
+      <c r="C113">
+        <v>16.741071428571431</v>
+      </c>
+      <c r="D113">
+        <v>188.33705357142858</v>
+      </c>
+      <c r="E113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>17</v>
+      </c>
+      <c r="B114" t="s">
+        <v>10</v>
+      </c>
+      <c r="C114">
+        <v>13.008514664143805</v>
+      </c>
+      <c r="D114">
+        <v>186.25827814569539</v>
+      </c>
+      <c r="E114">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>17</v>
+      </c>
+      <c r="B115" t="s">
+        <v>10</v>
+      </c>
+      <c r="C115">
+        <v>17.006802721088434</v>
+      </c>
+      <c r="D115">
+        <v>221.08843537414964</v>
+      </c>
+      <c r="E115">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>17</v>
+      </c>
+      <c r="B116" t="s">
+        <v>11</v>
+      </c>
+      <c r="C116">
+        <v>18.921475875118261</v>
+      </c>
+      <c r="D116">
+        <v>198.67549668874173</v>
+      </c>
+      <c r="E116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>17</v>
+      </c>
+      <c r="B117" t="s">
+        <v>11</v>
+      </c>
+      <c r="C117">
+        <v>22.175536881419237</v>
+      </c>
+      <c r="D117">
+        <v>196.07843137254903</v>
+      </c>
+      <c r="E117">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>17</v>
+      </c>
+      <c r="B118" t="s">
+        <v>11</v>
+      </c>
+      <c r="C118">
+        <v>30.545112781954884</v>
+      </c>
+      <c r="D118">
+        <v>205.59210526315789</v>
+      </c>
+      <c r="E118">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>17</v>
+      </c>
+      <c r="B119" t="s">
+        <v>12</v>
+      </c>
+      <c r="C119">
+        <v>22.079330647660363</v>
+      </c>
+      <c r="D119">
+        <v>81.344902386117141</v>
+      </c>
+      <c r="E119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>17</v>
+      </c>
+      <c r="B120" t="s">
+        <v>12</v>
+      </c>
+      <c r="C120">
+        <v>33.407572383073493</v>
+      </c>
+      <c r="D120">
+        <v>171.21380846325167</v>
+      </c>
+      <c r="E120">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>17</v>
+      </c>
+      <c r="B121" t="s">
+        <v>12</v>
+      </c>
+      <c r="C121">
+        <v>20.840143837855504</v>
+      </c>
+      <c r="D121">
+        <v>188.78718535469108</v>
+      </c>
+      <c r="E121">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>17</v>
+      </c>
+      <c r="B122" t="s">
+        <v>4</v>
+      </c>
+      <c r="C122">
+        <v>19.841269841269842</v>
+      </c>
+      <c r="D122">
+        <v>179.73856209150327</v>
+      </c>
+      <c r="E122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>17</v>
+      </c>
+      <c r="B123" t="s">
+        <v>4</v>
+      </c>
+      <c r="C123">
+        <v>19.712430426716139</v>
+      </c>
+      <c r="D123">
+        <v>186.68831168831167</v>
+      </c>
+      <c r="E123">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>17</v>
+      </c>
+      <c r="B124" t="s">
+        <v>4</v>
+      </c>
+      <c r="C124">
+        <v>25.621118012422361</v>
+      </c>
+      <c r="D124">
+        <v>187.5</v>
+      </c>
+      <c r="E124">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>17</v>
+      </c>
+      <c r="B125" t="s">
+        <v>13</v>
+      </c>
+      <c r="C125">
+        <v>11.852085967130213</v>
+      </c>
+      <c r="D125">
+        <v>53.926991150442475</v>
+      </c>
+      <c r="E125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>17</v>
+      </c>
+      <c r="B126" t="s">
+        <v>13</v>
+      </c>
+      <c r="C126">
+        <v>14.413837283792441</v>
+      </c>
+      <c r="D126">
+        <v>88.284753363228702</v>
+      </c>
+      <c r="E126">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>17</v>
+      </c>
+      <c r="B127" t="s">
+        <v>13</v>
+      </c>
+      <c r="C127">
+        <v>11.471397981033956</v>
+      </c>
+      <c r="D127">
+        <v>56.20985010706638</v>
+      </c>
+      <c r="E127">
         <v>3</v>
       </c>
     </row>
